--- a/Documentation/Budget.xlsx
+++ b/Documentation/Budget.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n01246904\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simra\Desktop\Lumi-Monitor\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA9BC0-C458-4A31-B7AC-D35FF691D4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Lumi Monitor Budget</t>
   </si>
@@ -134,17 +135,29 @@
   </si>
   <si>
     <t xml:space="preserve">Already owned </t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>B07BFH96M3</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2CayCcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had to buy another one due to my zero dying </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +193,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -212,6 +231,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,33 +546,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -615,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -649,7 +669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -683,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -717,7 +737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -734,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -751,27 +771,61 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>65.97</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <f>D10+E10</f>
+        <v>65.97</v>
+      </c>
+      <c r="H10" s="2">
+        <v>65.97</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="2">
-        <f>G4+G5+G6+G7</f>
-        <v>87.88</v>
+        <f>G4+G5+G6+G7+G10</f>
+        <v>153.85</v>
       </c>
       <c r="H14" s="2">
-        <f>H4+H5+H6+H7</f>
-        <v>99.304400000000001</v>
+        <f>H4+H5+H6+H7+H10</f>
+        <v>165.27440000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="I6" r:id="rId2"/>
-    <hyperlink ref="I7" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I10" r:id="rId5" xr:uid="{084F7534-9066-4536-A8EB-A3A476E52345}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Documentation/Budget.xlsx
+++ b/Documentation/Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simra\Desktop\Lumi-Monitor\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA9BC0-C458-4A31-B7AC-D35FF691D4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A91873-F811-4B04-86B9-2825A85B7107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Lumi Monitor Budget</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t xml:space="preserve">Had to buy another one due to my zero dying </t>
+  </si>
+  <si>
+    <t>USB to Ethernet Cable</t>
+  </si>
+  <si>
+    <t>Ethernet cable</t>
+  </si>
+  <si>
+    <t>HL-001763</t>
+  </si>
+  <si>
+    <t>AE3101X1</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2KhWU8z</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2qSPrWv</t>
   </si>
 </sst>
 </file>
@@ -200,19 +218,34 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -221,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -232,6 +265,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,7 +586,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,6 +840,66 @@
         <v>37</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20.05</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20.05</v>
+      </c>
+      <c r="H11" s="2">
+        <f>2.61+G11</f>
+        <v>22.66</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.56</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.56</v>
+      </c>
+      <c r="H12" s="2">
+        <f>0.83+G12</f>
+        <v>7.39</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
@@ -813,8 +909,8 @@
         <v>153.85</v>
       </c>
       <c r="H14" s="2">
-        <f>H4+H5+H6+H7+H10</f>
-        <v>165.27440000000001</v>
+        <f>H4+H5+H6+H7+H10+H11+H12</f>
+        <v>195.3244</v>
       </c>
     </row>
   </sheetData>
@@ -824,8 +920,10 @@
     <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="I10" r:id="rId5" xr:uid="{084F7534-9066-4536-A8EB-A3A476E52345}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{B1B45DEC-5AF2-445C-AFB3-ED4EFEE5A995}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{29008A69-045B-4C85-AE61-C20213BCB990}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>